--- a/Mietpreise_LIK_Zins.xlsx
+++ b/Mietpreise_LIK_Zins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biancapauger/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biancapauger/Library/Mobile Documents/com~apple~CloudDocs/Master/2. Semester/BINA/Case Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2501C242-D520-4247-BEA0-50122BA97CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2BDDA66-FB35-4F47-AF7C-0A8128CEBE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2012-2022" sheetId="13" r:id="rId1"/>
@@ -130,13 +130,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#\ ###\ ##0.0__;\-#\ ###\ ##0.0__;0.0__;@__\ "/>
-    <numFmt numFmtId="167" formatCode="#\ ###\ ##\(#0.0\)__;\-#\ ###\ ##\(#0.0\)__;\(#0.0\)__;@__\ "/>
-    <numFmt numFmtId="168" formatCode="[Black]##0.0__"/>
-    <numFmt numFmtId="169" formatCode="[Black]\(##0.0\)__"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -303,7 +299,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -328,51 +324,40 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Komma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -687,7 +672,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="B2" sqref="B2:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="12.75" customHeight="1"/>
@@ -757,19 +742,19 @@
       <c r="G2" s="10">
         <v>16</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="11">
         <v>16.3</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="11">
         <v>16.5</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="12">
         <v>16.600000000000001</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="12">
         <v>16.8</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="12">
         <v>17</v>
       </c>
     </row>
@@ -777,37 +762,37 @@
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="13">
         <v>18.5</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>18.8</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="13">
         <v>18.8</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="13">
         <v>18.3</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="13">
         <v>18.600000000000001</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="13">
         <v>18.7</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="14">
         <v>19.100000000000001</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="14">
         <v>19.3</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="15">
         <v>19.2</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="15">
         <v>19.7</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="15">
         <v>20</v>
       </c>
       <c r="M3" s="8"/>
@@ -816,37 +801,37 @@
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="13">
         <v>15</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>14.6</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <v>15</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="13">
         <v>14.3</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="13">
         <v>14.5</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="13">
         <v>14.5</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="14">
         <v>14.8</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="14">
         <v>15.1</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="15">
         <v>15.2</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="15">
         <v>15.3</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="15">
         <v>15.4</v>
       </c>
       <c r="M4" s="8"/>
@@ -855,37 +840,37 @@
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="13">
         <v>15.4</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <v>15.5</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>15.6</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="13">
         <v>15.2</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="13">
         <v>15.4</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="13">
         <v>15.4</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="14">
         <v>15.6</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="14">
         <v>15.9</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="15">
         <v>15.9</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="15">
         <v>16.100000000000001</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="15">
         <v>16.3</v>
       </c>
       <c r="M5" s="8"/>
@@ -894,37 +879,37 @@
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="13">
         <v>12.9</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="13">
         <v>14.6</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="13">
         <v>13.6</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="13">
         <v>12.7</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="13">
         <v>13.5</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="13">
         <v>13.1</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="14">
         <v>13.4</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="14">
         <v>13.7</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="15">
         <v>13.8</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="15">
         <v>13.7</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="15">
         <v>14.3</v>
       </c>
       <c r="M6" s="8"/>
@@ -933,37 +918,37 @@
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="13">
         <v>16.899999999999999</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="13">
         <v>16.899999999999999</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <v>17.399999999999999</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="13">
         <v>16.600000000000001</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <v>16.7</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="13">
         <v>16.3</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="14">
         <v>16.5</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="14">
         <v>17</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="15">
         <v>16.7</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="15">
         <v>17.399999999999999</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="15">
         <v>17.399999999999999</v>
       </c>
       <c r="M7" s="8"/>
@@ -972,37 +957,37 @@
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="13">
         <v>14.4</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="13">
         <v>15.4</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="13">
         <v>14.6</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="13">
         <v>13</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="13">
         <v>13.2</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="13">
         <v>14</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="14">
         <v>14.2</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="14">
         <v>14.3</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="15">
         <v>14.5</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="15">
         <v>15</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="15">
         <v>14.5</v>
       </c>
       <c r="M8" s="8"/>
@@ -1011,37 +996,37 @@
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="13">
         <v>15.8</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="13">
         <v>16.399999999999999</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="13">
         <v>16.8</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="13">
         <v>15.3</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="16">
         <v>15.3</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="16">
         <v>16.7</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="14">
         <v>15.7</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="14">
         <v>16.5</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="15">
         <v>16.8</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="15">
         <v>16.2</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="15">
         <v>16.5</v>
       </c>
     </row>
@@ -1049,37 +1034,37 @@
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="13">
         <v>12.4</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="13">
         <v>13.1</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="13">
         <v>12.9</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="13">
         <v>11.8</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="16">
         <v>13.6</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="16">
         <v>12.7</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="14">
         <v>13.1</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="14">
         <v>13</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="15">
         <v>14</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="15">
         <v>13.9</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="15">
         <v>14</v>
       </c>
       <c r="M10" s="8"/>
@@ -1088,37 +1073,37 @@
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="13">
         <v>19.600000000000001</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="13">
         <v>19.100000000000001</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="13">
         <v>19.899999999999999</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="13">
         <v>19.5</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="16">
         <v>20.2</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="16">
         <v>19.5</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="14">
         <v>19.8</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="14">
         <v>20.100000000000001</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="15">
         <v>19.3</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="15">
         <v>19.7</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="15">
         <v>20</v>
       </c>
       <c r="M11" s="8"/>
@@ -1127,37 +1112,37 @@
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="13">
         <v>14.6</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="13">
         <v>14.6</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="13">
         <v>15.2</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="13">
         <v>14.2</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="16">
         <v>14.5</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="16">
         <v>14.8</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="14">
         <v>14.7</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="14">
         <v>14.5</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="15">
         <v>14.8</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="15">
         <v>15.2</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="15">
         <v>15.2</v>
       </c>
       <c r="M12" s="8"/>
@@ -1166,37 +1151,37 @@
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="13">
         <v>13.5</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="13">
         <v>13.6</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="13">
         <v>14</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="13">
         <v>13.4</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="16">
         <v>13.3</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="16">
         <v>13.6</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="14">
         <v>13.3</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="14">
         <v>13.9</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="15">
         <v>14</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="15">
         <v>14</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="15">
         <v>14</v>
       </c>
       <c r="M13" s="8"/>
@@ -1205,37 +1190,37 @@
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="13">
         <v>16.600000000000001</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="13">
         <v>16.7</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="13">
         <v>16.8</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="13">
         <v>16.399999999999999</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="16">
         <v>16.899999999999999</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="16">
         <v>16.8</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="14">
         <v>17.399999999999999</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="14">
         <v>17.7</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="15">
         <v>17.7</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="15">
         <v>18</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="15">
         <v>18.2</v>
       </c>
       <c r="M14" s="8"/>
@@ -1244,37 +1229,37 @@
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="13">
         <v>16.899999999999999</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="13">
         <v>16.5</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="13">
         <v>17</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="13">
         <v>16.3</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="16">
         <v>16.3</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="16">
         <v>16.7</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="14">
         <v>16.899999999999999</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="14">
         <v>17</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="15">
         <v>17.2</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="15">
         <v>17.3</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="15">
         <v>17.399999999999999</v>
       </c>
       <c r="M15" s="8"/>
@@ -1283,37 +1268,37 @@
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="13">
         <v>13</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="13">
         <v>13.3</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="13">
         <v>14.2</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="13">
         <v>13.1</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="16">
         <v>13.4</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="16">
         <v>13.5</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="14">
         <v>13.5</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="14">
         <v>13.4</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="15">
         <v>13.7</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="15">
         <v>14.4</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="15">
         <v>13.9</v>
       </c>
       <c r="M16" s="8"/>
@@ -1322,37 +1307,37 @@
       <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="13">
         <v>12.9</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="13">
         <v>12.9</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="13">
         <v>13.1</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="13">
         <v>13</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="16">
         <v>12.6</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="16">
         <v>12.8</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="14">
         <v>12.8</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="14">
         <v>13.4</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="15">
         <v>13.9</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="15">
         <v>14</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="15">
         <v>13.8</v>
       </c>
       <c r="M17" s="8"/>
@@ -1379,19 +1364,19 @@
       <c r="G18" s="16">
         <v>15</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="14">
         <v>14.4</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="14">
         <v>15.7</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="15">
         <v>14</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="15">
         <v>15.2</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="15">
         <v>15.9</v>
       </c>
       <c r="M18" s="8"/>
@@ -1400,37 +1385,37 @@
       <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="13">
         <v>14.2</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="13">
         <v>14.4</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="13">
         <v>15</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="13">
         <v>14</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="16">
         <v>14</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="16">
         <v>14.4</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="14">
         <v>14.5</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="14">
         <v>14.5</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="15">
         <v>14.7</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="15">
         <v>14.9</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="15">
         <v>15.1</v>
       </c>
       <c r="M19" s="8"/>
@@ -1439,37 +1424,37 @@
       <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="13">
         <v>16</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="13">
         <v>16.100000000000001</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="13">
         <v>15.4</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="13">
         <v>15.2</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="16">
         <v>15.3</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="16">
         <v>15.3</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="14">
         <v>15.6</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="14">
         <v>15.8</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="15">
         <v>15.4</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="15">
         <v>15.7</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="15">
         <v>15.8</v>
       </c>
       <c r="M20" s="8"/>
@@ -1478,37 +1463,37 @@
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="13">
         <v>15.2</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="13">
         <v>15.5</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="13">
         <v>15.5</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="13">
         <v>15</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="16">
         <v>15.1</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="16">
         <v>15.1</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="14">
         <v>15.6</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="14">
         <v>15.5</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="15">
         <v>15.7</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="15">
         <v>15.8</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="15">
         <v>15.9</v>
       </c>
       <c r="M21" s="8"/>
@@ -1517,37 +1502,37 @@
       <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="13">
         <v>13.7</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="13">
         <v>13.5</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="13">
         <v>13.8</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="13">
         <v>13.3</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="13">
         <v>13.6</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="13">
         <v>13.9</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="14">
         <v>13.7</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="14">
         <v>14</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="15">
         <v>14.2</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="15">
         <v>14.4</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="15">
         <v>14.6</v>
       </c>
       <c r="M22" s="8"/>
@@ -1556,37 +1541,37 @@
       <c r="A23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="13">
         <v>13.4</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="13">
         <v>13.7</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="13">
         <v>13.9</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="13">
         <v>13.3</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="16">
         <v>13.4</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="16">
         <v>13.5</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="14">
         <v>13.7</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="14">
         <v>13.7</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="15">
         <v>14.1</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="15">
         <v>14.1</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="15">
         <v>14.2</v>
       </c>
       <c r="M23" s="8"/>
@@ -1595,37 +1580,37 @@
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="13">
         <v>16.600000000000001</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="13">
         <v>16.600000000000001</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="13">
         <v>17.2</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="13">
         <v>16.3</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="16">
         <v>16.600000000000001</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="16">
         <v>17.100000000000001</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="14">
         <v>17.100000000000001</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="14">
         <v>17.399999999999999</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="15">
         <v>17.7</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="15">
         <v>18</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="15">
         <v>18.100000000000001</v>
       </c>
       <c r="M24" s="8"/>
@@ -1634,37 +1619,37 @@
       <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="13">
         <v>13.6</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="13">
         <v>13.7</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="13">
         <v>14.3</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="13">
         <v>13.3</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="16">
         <v>13.5</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="16">
         <v>13.9</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="14">
         <v>14</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="14">
         <v>14</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="15">
         <v>14.2</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="15">
         <v>14</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="15">
         <v>14.5</v>
       </c>
       <c r="M25" s="8"/>
@@ -1673,37 +1658,37 @@
       <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="13">
         <v>12.3</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="13">
         <v>12.3</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="13">
         <v>12.5</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="13">
         <v>11.5</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="16">
         <v>11.7</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="16">
         <v>11.7</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="14">
         <v>12.2</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="14">
         <v>12.3</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="15">
         <v>12.6</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="15">
         <v>12.9</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="15">
         <v>13</v>
       </c>
       <c r="M26" s="8"/>
@@ -1712,37 +1697,37 @@
       <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="13">
         <v>18.5</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="13">
         <v>18.7</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="13">
         <v>18.7</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="13">
         <v>18.100000000000001</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="16">
         <v>18.399999999999999</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="16">
         <v>18.5</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="14">
         <v>18.899999999999999</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="14">
         <v>19.5</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="15">
         <v>19.7</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="15">
         <v>19.7</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="15">
         <v>20.3</v>
       </c>
       <c r="M27" s="8"/>
@@ -1751,37 +1736,37 @@
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="17">
         <v>11.1</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="17">
         <v>11.6</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="17">
         <v>11.8</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="17">
         <v>10.6</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="18">
         <v>11.7</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="18">
         <v>11.3</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <v>10.9</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="19">
         <v>11.5</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="20">
         <v>11</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="20">
         <v>12.2</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="20">
         <v>12.2</v>
       </c>
       <c r="M28" s="8"/>
@@ -1790,37 +1775,37 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="21">
         <v>-0.7</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="21">
         <v>-0.2</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="21">
         <v>0</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="21">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="21">
         <v>-0.4</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="21">
         <v>0.5</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="21">
         <v>0.9</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="21">
         <v>0.4</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="21">
         <v>-0.7</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="21">
         <v>0.6</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="21">
         <v>2.8</v>
       </c>
     </row>
@@ -1828,37 +1813,37 @@
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="21">
         <v>2.5</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="21">
         <v>2.25</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="21">
         <v>2</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="21">
         <v>2</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="21">
         <v>1.75</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="21">
         <v>1.75</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="21">
         <v>1.5</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="21">
         <v>1.5</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="21">
         <v>1.25</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="21">
         <v>1.25</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="21">
         <v>1.25</v>
       </c>
     </row>
